--- a/Test1/Test_result.xlsx
+++ b/Test1/Test_result.xlsx
@@ -31,7 +31,7 @@
     <t>ComfileError</t>
   </si>
   <si>
-    <t xml:space="preserve">WeissBlume.cpp:31:1: error: C++ requires a type specifier for all declarations
+    <t xml:space="preserve">codes/WeissBlume.cpp:31:1: error: C++ requires a type specifier for all declarations
 main()
 ^
 1 error generated.
@@ -122,7 +122,7 @@
     <t>kazel</t>
   </si>
   <si>
-    <t xml:space="preserve">kazel.cpp:1:9: fatal error: 'bits/stdc++.h' file not found
+    <t xml:space="preserve">codes/kazel.cpp:1:9: fatal error: 'bits/stdc++.h' file not found
 #include&lt;bits/stdc++.h&gt;
         ^
 1 error generated.
@@ -240,7 +240,7 @@
     <t>yukariko</t>
   </si>
   <si>
-    <t xml:space="preserve">yukariko.cpp:1:10: fatal error: 'bits/stdc++.h' file not found
+    <t xml:space="preserve">codes/yukariko.cpp:1:10: fatal error: 'bits/stdc++.h' file not found
 #include &lt;bits/stdc++.h&gt;
          ^
 1 error generated.
